--- a/biology/Botanique/Vana-Lõuna_tänav/Vana-Lõuna_tänav.xlsx
+++ b/biology/Botanique/Vana-Lõuna_tänav/Vana-Lõuna_tänav.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vana-L%C3%B5una_t%C3%A4nav</t>
+          <t>Vana-Lõuna_tänav</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La vieille rue du Sud (en estonien : Vana-Lõuna tänav) est une rue Tallinn en Estonie[1].
+La vieille rue du Sud (en estonien : Vana-Lõuna tänav) est une rue Tallinn en Estonie.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vana-L%C3%B5una_t%C3%A4nav</t>
+          <t>Vana-Lõuna_tänav</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Longue de 790 mètres la rue parcoure les quartiers Veerenni et Uus Maailm de l'arrondissement Kesklinn. 
 La rue Vana-Lõuna part de la rue Tatari tänav, traverse Herne tänav, Vineeri tänav et Koidu tänav et se termine au passage de Pärnu maantee au dessus de Tehnika tänav.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vana-L%C3%B5una_t%C3%A4nav</t>
+          <t>Vana-Lõuna_tänav</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,16 +558,18 @@
           <t>Bâtiments de la rue</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La rue compte principalement des bâtiments historiques[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La rue compte principalement des bâtiments historiques :
 Vana-Lõuna tänav 6 - est Immeuble résidentiel en pierre, construit en 1912 ;
 Vana-Lõuna tänav 17 - est un immeuble résidentiel en pierre, construit en 1948 ;
-Vana-Lõuna tänav 19 - Caserne de pompiers de la fabrique Luther[3] ;
-Vana-Lõuna tänav 21, 23, 25, 31 et 35 - Bâtiments résidentiels standards de Herbert Johanson et Eugen Habermann[4],[5],[6],[7],[8],[9],[10],[11] ;
-Vana-Lõuna tänav 37 - bâtiment de la cantine ouvrière-maison du peuple de la fabrique Luther (architectes Herman Gesellius, Armas Lindgren, Eliel Saarinen)[12] ;
-Vana-Lõuna tänav 39 - Bâtiment industriel de la fabrique Luther[13] ;
-Vana-Lõuna tänav 39a - Bâtiment industriel de la fabrique Luther[14] ;
+Vana-Lõuna tänav 19 - Caserne de pompiers de la fabrique Luther ;
+Vana-Lõuna tänav 21, 23, 25, 31 et 35 - Bâtiments résidentiels standards de Herbert Johanson et Eugen Habermann ;
+Vana-Lõuna tänav 37 - bâtiment de la cantine ouvrière-maison du peuple de la fabrique Luther (architectes Herman Gesellius, Armas Lindgren, Eliel Saarinen) ;
+Vana-Lõuna tänav 39 - Bâtiment industriel de la fabrique Luther ;
+Vana-Lõuna tänav 39a - Bâtiment industriel de la fabrique Luther ;
 Vana-Lõuna tänav 41/1 - Bureau du dépôt de tramway de Tallinn ;
 Vana-Lõuna tänav 41/2 - Dépôt de tramway de Tallinn.
 Vana-Lõuna tänav 41/3 - Salle de sport.</t>
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Vana-L%C3%B5una_t%C3%A4nav</t>
+          <t>Vana-Lõuna_tänav</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,9 +600,11 @@
           <t>Transports</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La ligne de bus n° 32 emprunte la rue Vana-Lõuna tänav[15].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La ligne de bus n° 32 emprunte la rue Vana-Lõuna tänav.
 </t>
         </is>
       </c>
